--- a/biology/Botanique/Guido_Georg_Wilhelm_Brause/Guido_Georg_Wilhelm_Brause.xlsx
+++ b/biology/Botanique/Guido_Georg_Wilhelm_Brause/Guido_Georg_Wilhelm_Brause.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guido Georg Wilhelm Brause est un militaire et botaniste, spécialiste des fougères, allemand, né le 7 août 1847 à Kochanowitz, arrondissement de Lublinitz (de) et mort le 17 décembre 1922 à Berlin.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à Koschentin. Il poursuit toute sa vie une carrière militaire, d'abord dans l'artillerie pendant la guerre de 1870[1], puis comme officier à Charlottenbourg, avec une expédition en Afrique centrale en 1907-1908.
-Il a, par ailleurs, consacré ses loisirs et ses compétences botaniques, notamment dans les déterminations de fougères[2] au Jardin botanique et musée botanique de Berlin-Dahlem.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à Koschentin. Il poursuit toute sa vie une carrière militaire, d'abord dans l'artillerie pendant la guerre de 1870, puis comme officier à Charlottenbourg, avec une expédition en Afrique centrale en 1907-1908.
+Il a, par ailleurs, consacré ses loisirs et ses compétences botaniques, notamment dans les déterminations de fougères au Jardin botanique et musée botanique de Berlin-Dahlem.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous la direction de J. Mildbraed - Wissenschaftliche Ergebnisse der zweiten Deutschen Zentral-Afrika-Expedition 1907-08, unter Führung Adolf Friedrichs, Herzogs zu Mecklenburg[3] Leipzig, 1910 (collaboration)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous la direction de J. Mildbraed - Wissenschaftliche Ergebnisse der zweiten Deutschen Zentral-Afrika-Expedition 1907-08, unter Führung Adolf Friedrichs, Herzogs zu Mecklenburg Leipzig, 1910 (collaboration)
 avec Wilhelm Lorch, sous la direction de Gustav Lindau, Kryptogamenflora für Anfänger - 6e partie : « Farnpflanzen (Pteridophyta) » - Berlin : Der Springer-Verlag, 1914</t>
         </is>
       </c>
